--- a/CAN.xlsx
+++ b/CAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alexuuni-my.sharepoint.com/personal/es-mahmouda_ibrahim2024_alexu_edu_eg/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F9A7DE-69A5-4FE1-AD0A-777EC5A1E51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A1E1BA-8F72-4190-866C-6C2B80939885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{106D91EE-F62A-4287-8BF8-DE9EC2E5A427}"/>
+    <workbookView xWindow="4548" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{106D91EE-F62A-4287-8BF8-DE9EC2E5A427}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
   <si>
     <t>ROS Topic</t>
   </si>
@@ -140,9 +140,6 @@
     <t>0x000</t>
   </si>
   <si>
-    <t>* 0</t>
-  </si>
-  <si>
     <t>ODrive's CAN message ID consistes of node id and command id.</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>* 8</t>
-  </si>
-  <si>
     <t>TX_SDO</t>
   </si>
   <si>
@@ -410,14 +404,14 @@
     <t>0x01f</t>
   </si>
   <si>
-    <t>* 2</t>
+    <t>remote/data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,15 +488,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,6 +497,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,9 +525,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -571,7 +565,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -677,7 +671,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -819,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -829,30 +823,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFD8711-62EF-4D4C-B558-2919DEEF998E}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" customWidth="1"/>
-    <col min="17" max="17" width="57.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="24.88671875" customWidth="1"/>
+    <col min="16" max="16" width="36.109375" customWidth="1"/>
+    <col min="17" max="17" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.9" customHeight="1">
+    <row r="1" spans="1:17" ht="25.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -892,15 +886,15 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -916,8 +910,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -937,8 +931,8 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -954,8 +948,8 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -970,18 +964,18 @@
         <v>27</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -990,8 +984,8 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1000,8 +994,8 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1010,22 +1004,22 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:17"/>
-    <row r="10" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>34</v>
+      <c r="E10" s="8">
+        <v>0</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1035,60 +1029,60 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1097,26 +1091,26 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>34</v>
+      <c r="E13" s="8">
+        <v>0</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1126,24 +1120,24 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A14" s="8"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>51</v>
+      <c r="E14" s="8">
+        <v>8</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1153,24 +1147,24 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A15" s="8"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>34</v>
+      <c r="E15" s="8">
+        <v>0</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1180,75 +1174,75 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A16" s="8"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="11">
-        <v>4</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A17" s="8"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="11">
-        <v>4</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A18" s="8"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1257,48 +1251,48 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A19" s="8"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A20" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1307,329 +1301,329 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A21" s="8"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="8">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="12"/>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="8">
         <v>8</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3" t="s">
+      <c r="F22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="12"/>
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="8">
         <v>8</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="12"/>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="11">
-        <v>8</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="11">
-        <v>4</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A25" s="8"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="8">
+        <v>8</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="11">
-        <v>8</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="12"/>
+      <c r="B26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12" t="s">
+      <c r="C26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="8">
         <v>4</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="F26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A27" s="8"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="8">
+        <v>8</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="11">
-        <v>8</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="12"/>
+      <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12" t="s">
+      <c r="C28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3" t="s">
+      <c r="D28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="11">
-        <v>4</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A29" s="8"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="12"/>
+      <c r="B30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="8">
         <v>0</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3" t="s">
+      <c r="F30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="12"/>
+      <c r="B31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12" t="s">
+      <c r="C31" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="D31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="8">
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
@@ -1640,54 +1634,54 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A32" s="8"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="12"/>
+      <c r="B33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12" t="s">
+      <c r="C33" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="11">
+      <c r="D33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="8">
         <v>0</v>
       </c>
       <c r="F33" s="3"/>
@@ -1698,144 +1692,144 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A34" s="8"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="8">
+        <v>4</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="11">
-        <v>4</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A35" s="8"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="8">
+        <v>4</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="11">
-        <v>4</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A36" s="8"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="8">
+        <v>8</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="11">
-        <v>8</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="12"/>
+      <c r="B37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12" t="s">
+      <c r="C37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3" t="s">
+      <c r="D37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="12"/>
+      <c r="B38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12" t="s">
+      <c r="C38" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>124</v>
+      <c r="D38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1845,33 +1839,33 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:17"/>
-    <row r="40" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A40" s="8"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A41" s="8"/>
+    <row r="41" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A42" s="8"/>
+    <row r="42" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A43" s="8"/>
+    <row r="43" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="14.45" customHeight="1">
-      <c r="A44" s="8"/>
+    <row r="44" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:17"/>
+    <row r="45" spans="1:17" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="64">
     <mergeCell ref="F11:I11"/>
@@ -2179,13 +2173,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2AE3EE5-636A-4D62-9EEB-502FDEBBE68D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2AE3EE5-636A-4D62-9EEB-502FDEBBE68D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870FCB0C-9E9B-473C-BCFF-DF28589D56E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870FCB0C-9E9B-473C-BCFF-DF28589D56E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="79e7eff0-9394-4e2c-bdb5-552a06f36b3c"/>
+    <ds:schemaRef ds:uri="79d99dfb-9f9c-4b84-b7a4-49dd61626652"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A7264D8-2E8C-4F37-AFAC-41B2F555E04D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A7264D8-2E8C-4F37-AFAC-41B2F555E04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="79e7eff0-9394-4e2c-bdb5-552a06f36b3c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>